--- a/seq-scope/v2.0.0/seq-scope-v2.0.0.xlsx
+++ b/seq-scope/v2.0.0/seq-scope-v2.0.0.xlsx
@@ -26,73 +26,72 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) For Visium, this is the area of spots that was covered by tissue
-within the captured area, not the total possible captured area which is fixed.
-For GeoMx this would be the area of the AOI being captured. For HiFi this is the
-summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, this
-is the area of the FOV (aka ROI) region being captured. For Xenium this is the
-total area of the FOV regions (aka ROI) being captured. For Stereo-Seq this is
-the number of beads.</t>
+        <t>(Required) The mapped area value, which refers to the specific area covered or
+captured in various assays. For Visium, it is the area of spots covered by
+tissue within the captured area, excluding the total possible captured area. For
+GeoMx, it refers to the area of the AOI being captured. In HiFi, it is the
+summed area of the ROIs in a single flowcell lane. For CosMx and Resolve, it
+indicates the area of the FOV (also known as ROI) region being captured. For
+Xenium, it is the total area of the FOV regions (also known as ROI) being
+captured. For Stereo-Seq, this value represents the number of beads. Example:
+42.25</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) The unit of measurement for the mapping area. For Visium and GeoMx
-this is typically um^2.</t>
+        <t>(Required) The unit of measurement for the mapped area value. If mapping area is
+not specified, this field may be left blank. Example: um^2</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
@@ -136,22 +135,22 @@
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) A unique ID denoting the slide used. This allows users the ability to
+        <t>(Required) The unique identifier assigned to each slide, enabling users to
 determine which tissue sections were processed together on the same slide. It is
-recommended that data providers prefix the ID with the center name, to prevent
-values overlapping across centers.</t>
+recommended that data providers prefix the ID with the center name to prevent
+overlapping values across different centers. Example: VAN0071-PA-1-1_AF</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>This would be minimally 2 (always include DAPI and polyT) and can include 6
-more.</t>
+        <t>The number of additional stains used in the process. For example, this would be
+minimally 2 (i.e., DAPI and polyT) and can include 6 more. Example: 2</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -160,7 +159,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="134">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -186,6 +185,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
     <t>Visium (no probes)</t>
   </si>
   <si>
@@ -549,7 +554,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-08-15T09:11:18-07:00</t>
+    <t>2025-10-21T13:34:03-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -681,60 +686,60 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="R2" t="s" s="19">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="11">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$49</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -781,7 +786,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1177,6 +1182,14 @@
       </c>
       <c r="B49" t="s" s="0">
         <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1194,18 +1207,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1223,18 +1236,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -1252,10 +1265,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -1273,10 +1286,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1300,30 +1313,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
